--- a/Assessments/Unit4/4.1.5/CozyCatCabins.xlsx
+++ b/Assessments/Unit4/4.1.5/CozyCatCabins.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/Assessments/Unit4/4.1.5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc.sharepoint.com/sites/SophiaAcademicsCD/PW/Business Data Analytics/Assessments/Assessment Data/Unit 4/4.1.5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EB326D0-505F-4A33-B34E-3E4B59DC812A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7BE9380-D800-4591-9998-1467D04D8F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F6714269-9BCD-4F1D-B027-56BEE52A0067}"/>
   </bookViews>
@@ -1477,7 +1477,7 @@
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <TaxCatchAll xmlns="c7bf0040-ac83-4da7-b072-3c1b65a214b3" xsi:nil="true"/>
     <Status xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
     <Tag xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
     <Year xmlns="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xsi:nil="true"/>
@@ -1515,16 +1515,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{676A409E-AFD7-446D-A1AD-3EAE6DF45BBA}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>